--- a/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.08855522716199669</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09759116457858688</v>
+        <v>0.09759116457858689</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08131398221985589</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07192439777321853</v>
+        <v>0.07424038983531231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06693630947400678</v>
+        <v>0.06737400704527428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04909503625497079</v>
+        <v>0.04876486117595744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06532909152306991</v>
+        <v>0.06403810240804546</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04770518680487922</v>
+        <v>0.04682555846663888</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07744991518404992</v>
+        <v>0.07302380384475005</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06458336015182119</v>
+        <v>0.06547683266980024</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07647453328640304</v>
+        <v>0.07329887703119026</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0648437697424761</v>
+        <v>0.06505487485929438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07804096912282164</v>
+        <v>0.07624440957813464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06284991968756486</v>
+        <v>0.06242025014964848</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07848608413488876</v>
+        <v>0.07583383272581809</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1206631151712956</v>
+        <v>0.1240670944022808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1179023506590211</v>
+        <v>0.119133979970555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09077082067374691</v>
+        <v>0.08990263470386396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1762428015774858</v>
+        <v>0.1880397040284887</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1280312888055411</v>
+        <v>0.128357797838828</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1616304537300741</v>
+        <v>0.1612693737492659</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1196128421530064</v>
+        <v>0.120493696396898</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1291010125799866</v>
+        <v>0.1268945636240632</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1082237893385922</v>
+        <v>0.1091979671193226</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1273867705712341</v>
+        <v>0.1269846218350143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09588313301620222</v>
+        <v>0.09535355617823539</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1385006616534117</v>
+        <v>0.1385884924927191</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.06417104840893501</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08448197725729666</v>
+        <v>0.08448197725729667</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07508575640055666</v>
+        <v>0.07399645322802417</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06925912693020139</v>
+        <v>0.0698178441743801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04716941114830352</v>
+        <v>0.04651705707243096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06665434443989854</v>
+        <v>0.06936464103222574</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04778286747980538</v>
+        <v>0.04838847090651646</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06953992562455144</v>
+        <v>0.07098589167946132</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04644518725154283</v>
+        <v>0.04610754017788937</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05461360334776988</v>
+        <v>0.05534019381201812</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06570142254612232</v>
+        <v>0.06561660170686934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07514307166804601</v>
+        <v>0.07635411718610738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05007248702522879</v>
+        <v>0.05130928747081118</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06722674932315566</v>
+        <v>0.06550904702966286</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1225429446072776</v>
+        <v>0.1239755360873729</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1111829081126908</v>
+        <v>0.1137885258754949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07867412676812861</v>
+        <v>0.08063936173839323</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1572868705524123</v>
+        <v>0.1544837100598317</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08231147537069725</v>
+        <v>0.08100522711250478</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1268181235115379</v>
+        <v>0.1254624344099973</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09963748380461897</v>
+        <v>0.09696123721248506</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09730694214127036</v>
+        <v>0.1005918496157672</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09509907429953407</v>
+        <v>0.09564649109465044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1093155129326609</v>
+        <v>0.1101274766951609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08270476178111756</v>
+        <v>0.08162199407319068</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1169659622671327</v>
+        <v>0.1128460016233606</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.05635732357550399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0433476581647877</v>
+        <v>0.04334765816478769</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06124281766568037</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05409789127531236</v>
+        <v>0.05288111787927948</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06057220665096115</v>
+        <v>0.0628267903822005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03798702867236808</v>
+        <v>0.03898443763066794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02908418657558088</v>
+        <v>0.03010211298815963</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04139438305293584</v>
+        <v>0.04088153283257656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05976829505633623</v>
+        <v>0.0581540166667124</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02800782211405849</v>
+        <v>0.02959324070858138</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07406793167729958</v>
+        <v>0.07593422443888702</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05352361703657262</v>
+        <v>0.05246262362391182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0660039787635279</v>
+        <v>0.06668559023009889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03833692753970228</v>
+        <v>0.03768065124933516</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05662316363116455</v>
+        <v>0.05564863044335221</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1091730771663609</v>
+        <v>0.1016088247745557</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1018497590281797</v>
+        <v>0.1074475367564778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08365029539169998</v>
+        <v>0.07864073975106671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06188947407166159</v>
+        <v>0.0624094216321631</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08743578634250498</v>
+        <v>0.08559897176424341</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1068683062788431</v>
+        <v>0.1041391352410856</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06073940883166885</v>
+        <v>0.06199510211595595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1457777664468422</v>
+        <v>0.1455467568525937</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08529294917063479</v>
+        <v>0.08594044065337078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09866657814518839</v>
+        <v>0.0982048908342887</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06510270860291056</v>
+        <v>0.0642985249187643</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09309898334934312</v>
+        <v>0.09294815980629768</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.06936990517994984</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07924144901866924</v>
+        <v>0.07924144901866922</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05318533526437898</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04637794529987271</v>
+        <v>0.04742707923272811</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09262646730463756</v>
+        <v>0.09212140830509928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05587033865796373</v>
+        <v>0.05691123380093573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05536635051270306</v>
+        <v>0.05768531330290438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03212736123253308</v>
+        <v>0.03275311458603056</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06150740202416489</v>
+        <v>0.06150656967595637</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05271984681649691</v>
+        <v>0.05295797525195406</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06304698213295482</v>
+        <v>0.06455894021983009</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04365563337327667</v>
+        <v>0.04408700659684663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08203101871019058</v>
+        <v>0.08206314092572085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05834959420318352</v>
+        <v>0.05829984689258894</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06478580923703471</v>
+        <v>0.06542556216532321</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08056740333325602</v>
+        <v>0.08059461005079224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1682753772732919</v>
+        <v>0.1674007414388675</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09775753069105986</v>
+        <v>0.09677627483683982</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1003569827550422</v>
+        <v>0.1005672413121893</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06003811666592178</v>
+        <v>0.06017118873402212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1032381572889412</v>
+        <v>0.1033649813227643</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0935693363445905</v>
+        <v>0.09484582155598176</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09811121056668669</v>
+        <v>0.1003793952648965</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06429728980285108</v>
+        <v>0.06557977823515569</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1235817416565024</v>
+        <v>0.1225550826824259</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08720924062682177</v>
+        <v>0.08819205090493962</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09218281420816202</v>
+        <v>0.09336923258059426</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.06462094881087156</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07888563039453378</v>
+        <v>0.07888563039453379</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05825302624045315</v>
@@ -1237,7 +1237,7 @@
         <v>0.06548119251700488</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0823196691693522</v>
+        <v>0.08231966916935221</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07007910331815577</v>
+        <v>0.07123257618210006</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08251196790149166</v>
+        <v>0.08400808603599536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05553298768160423</v>
+        <v>0.05599281460770466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06588717459707563</v>
+        <v>0.06570752430096531</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04928599906799205</v>
+        <v>0.05025321117447924</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07529770993230973</v>
+        <v>0.07696292609458956</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05585130632948162</v>
+        <v>0.05614062671804305</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07480977542920622</v>
+        <v>0.0750464679524246</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06229208910341892</v>
+        <v>0.06257433446085586</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08301286871821267</v>
+        <v>0.08309056480327964</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05820986156838658</v>
+        <v>0.05839427071788267</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07359098638740731</v>
+        <v>0.07355127696819765</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09382906346804241</v>
+        <v>0.09366406017161281</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1110438756591971</v>
+        <v>0.1123809888305604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07506107680216674</v>
+        <v>0.07572850243803332</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1012555892005746</v>
+        <v>0.1046655563940897</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07059957792608648</v>
+        <v>0.07077287568279908</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1027148052351433</v>
+        <v>0.1038650106354597</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0790623194543266</v>
+        <v>0.0786829480213181</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09825184437550556</v>
+        <v>0.09952930826591021</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07848928439473649</v>
+        <v>0.07804130924295556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1028821247477596</v>
+        <v>0.1027288106134898</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07354384864434137</v>
+        <v>0.0725257443209489</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09444819161072121</v>
+        <v>0.09519803409940614</v>
       </c>
     </row>
     <row r="19">
